--- a/TP1/Resultados/4_Reglas.Definitivas.Demograficas.xlsx
+++ b/TP1/Resultados/4_Reglas.Definitivas.Demograficas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>rules</t>
   </si>
@@ -285,7 +285,7 @@
     <t>{LINEAS FLY,C.A.B.A.-Loc} =&gt; {CAÑAS FLY}</t>
   </si>
   <si>
-    <t>{PESCA CAÑAS,-Loc} =&gt; {CAMPING}</t>
+    <t>{JARRO TÉRMICO,Buenos Aires-Prov} =&gt; {TERMO}</t>
   </si>
 </sst>
 </file>
@@ -360,13 +360,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2531,44 +2535,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.86734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.45918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.05612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.35204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2576,28 +2584,25 @@
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.00571700809909481</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>48.4384615384615</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>1717.60417234897</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.526234811584217</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.638461538461539</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.723076923076923</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2605,28 +2610,25 @@
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.00524059075750357</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>48.4384615384615</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1573.71643457118</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.503831473655779</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.626923076923077</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.746153846153846</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2634,28 +2636,25 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.0055582023185644</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.972222222222222</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>47.0929487179487</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>1621.55199434469</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.5116171779291</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.620726495726496</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.717557251908397</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2663,28 +2662,25 @@
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.00571700809909481</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.947368421052632</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>48.5006418485238</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1718.50096650264</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.526572466294343</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.62002567394095</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2692,28 +2688,25 @@
       <c r="A6" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.00968715261235509</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.693181818181818</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>6.6844807183628</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>333.65871831648</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.254467256937166</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.393298412919393</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.830882352941176</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2721,28 +2714,25 @@
       <c r="A7" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.00619342544068604</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.609375</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>17.3630514705882</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>629.679626590682</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.327927987073202</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.392922794117647</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.638211382113821</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2750,28 +2740,25 @@
       <c r="A8" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.0055582023185644</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.625</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>17.808257918552</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>580.613933014998</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.314613891067271</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.391685520361991</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.681818181818182</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2779,28 +2766,25 @@
       <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.00714626012386851</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.652173913043478</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>11.3133309378369</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>453.932388052383</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.284337837350556</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.388070427596119</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.75968992248062</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2808,57 +2792,51 @@
       <c r="A10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.00762267746545974</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.615384615384615</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>9.27051895472948</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>384.101570947729</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.26583110414196</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.365108575634891</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.758928571428572</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>0.00857551214864221</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.627906976744186</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>6.66767324208793</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>291.175882039828</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.239120707783123</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.359484685673948</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.8112</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2866,28 +2844,25 @@
       <c r="A12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.00778148324599016</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.6125</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>1.85339380105718</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>29.1281738960219</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.120092267907424</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.318023185968284</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.947443181818182</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2895,86 +2870,51 @@
       <c r="A13" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.00539939653803398</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.618181818181818</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>1.11315153248239</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>0.887219543787775</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.0775264247259773</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.313952218784933</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.978396816372939</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.0103223757344767</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0.601851851851852</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>1.083746385791</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0.962513243810839</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0.105767846697453</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.310219606223324</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>0.957344632768362</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.00539939653803398</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>0.607142857142857</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>1.0932738265452</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>0.613938299128079</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>0.0768311064229283</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.308432738265452</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.977834612105712</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
